--- a/ig/main/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
+++ b/ig/main/StructureDefinition-sdo-bundle-resultat-recherche-notification-esms.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="280">
   <si>
     <t>Property</t>
   </si>
@@ -647,10 +647,6 @@
   </si>
   <si>
     <t>A task to be performed.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}inv-1:Last modified date must be greater than or equal to authored-on date. {lastModified.exists().not() or authoredOn.exists().not() or lastModified &gt;= authoredOn}regle-StatutUnite:Si statut unite est rempli alors les éléments suivants sont attendus :idUnite,nomUnite, categorieOrganisation, modePriseCharge, dateStatutUnite {input.type.where(text='idUnite').exists() and input.type.where(text='nomUnite').exists() and input.type.where(text='categorieOrganisation').exists() and input.type.where(text='modePriseCharge').exists() and input.type.where(text='dateStatutUnite').exists() or input.type.where(text='statutUnite').exists().not()}regle-ModePriseEnCharge:Les codes possibles pour le mode de prise en charge sont : Code 46 « Hébergement (accueil jour et nuit) » = Internat (1),Code 47 « Accueil de jour » = externat (2), semi-internat (3) ou accueil de jour (6),Code 48 Accueil de nuit » = Accueil de nuit (4) {input.where(type.text='modePriseCharge').value.coding.code='48' or input.where(type.text='modePriseCharge').value.coding.code='47'  or input.where(type.text='modePriseCharge').value.coding.code='46' or input.where(type.text='modePriseCharge').exists().not() }</t>
   </si>
   <si>
     <t>ControlAct[moodCode=INT]</t>
@@ -3856,13 +3852,13 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3873,10 +3869,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3902,10 +3898,10 @@
         <v>148</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3956,7 +3952,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3965,7 +3961,7 @@
         <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>99</v>
@@ -3985,10 +3981,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4097,10 +4093,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4211,10 +4207,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4327,10 +4323,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4356,13 +4352,13 @@
         <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4391,11 +4387,11 @@
         <v>130</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>214</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4412,7 +4408,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4441,10 +4437,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4467,16 +4463,16 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4526,7 +4522,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4555,10 +4551,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4584,10 +4580,10 @@
         <v>148</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4638,7 +4634,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4647,7 +4643,7 @@
         <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>99</v>
@@ -4667,10 +4663,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4779,10 +4775,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4893,10 +4889,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5009,10 +5005,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5038,10 +5034,10 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>177</v>
@@ -5073,11 +5069,11 @@
         <v>130</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="Z34" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5094,7 +5090,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
@@ -5123,10 +5119,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5152,13 +5148,13 @@
         <v>101</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5208,7 +5204,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>86</v>
@@ -5237,10 +5233,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5266,10 +5262,10 @@
         <v>153</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>177</v>
@@ -5322,7 +5318,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5351,10 +5347,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5380,13 +5376,13 @@
         <v>135</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M37" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5436,7 +5432,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5465,10 +5461,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5494,10 +5490,10 @@
         <v>153</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N38" t="s" s="2">
         <v>177</v>
@@ -5550,7 +5546,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5579,10 +5575,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5608,10 +5604,10 @@
         <v>153</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>177</v>
@@ -5664,7 +5660,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5693,10 +5689,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5722,10 +5718,10 @@
         <v>148</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5776,7 +5772,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5785,7 +5781,7 @@
         <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>99</v>
@@ -5805,10 +5801,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5917,10 +5913,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6031,10 +6027,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6147,10 +6143,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6176,10 +6172,10 @@
         <v>153</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>177</v>
@@ -6232,7 +6228,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
@@ -6261,10 +6257,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6290,10 +6286,10 @@
         <v>101</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>181</v>
@@ -6346,7 +6342,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6375,10 +6371,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6404,13 +6400,13 @@
         <v>153</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6460,7 +6456,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6489,10 +6485,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6518,13 +6514,13 @@
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6574,7 +6570,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6603,10 +6599,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6629,16 +6625,16 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6688,7 +6684,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6706,7 +6702,7 @@
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -6717,10 +6713,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6743,19 +6739,19 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -6804,7 +6800,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
